--- a/data/trans_bre/P1410-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1410-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.212314336408475</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.5391260984038568</v>
+        <v>-0.5391260984038575</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0592772098536266</v>
@@ -649,7 +649,7 @@
         <v>0.5245315014828551</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.09472187331478259</v>
+        <v>-0.09472187331478271</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.855972157885486</v>
+        <v>-1.746306056308497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7915907685807612</v>
+        <v>-0.784926284204868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1382836744802161</v>
+        <v>-0.3300848095214882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.457930914397633</v>
+        <v>-2.432671087491125</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3764747748787607</v>
+        <v>-0.357586426330899</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.211422382394925</v>
+        <v>-0.1820877957206977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04000922002368837</v>
+        <v>-0.08147620274510196</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3589924954640893</v>
+        <v>-0.3579439543711619</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.445568362044819</v>
+        <v>2.270267617751863</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.40694291449488</v>
+        <v>3.37602106625036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.705653708676612</v>
+        <v>4.811535720317163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.447495530753651</v>
+        <v>1.550987769869139</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7508792469541598</v>
+        <v>0.7975709564077039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.309179013681528</v>
+        <v>1.316158564186289</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.408184371718827</v>
+        <v>1.531989428775302</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3308744310783475</v>
+        <v>0.3438374644179461</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.6147788219698198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.1239646928920771</v>
+        <v>-0.1239646928920778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.105064967524988</v>
@@ -749,7 +749,7 @@
         <v>-0.1569691680327034</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.02728826263928702</v>
+        <v>-0.02728826263928717</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.376375534784176</v>
+        <v>-2.226468985374999</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.468425459230622</v>
+        <v>-1.376883163339492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.227267608898261</v>
+        <v>-2.329547897910582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.8116547359737</v>
+        <v>-1.704583254557144</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4612822016252003</v>
+        <v>-0.4360075924357795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3078848155695677</v>
+        <v>-0.3006501817518699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4666748269542689</v>
+        <v>-0.4795927565155768</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3191506722889123</v>
+        <v>-0.3025019380261284</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.390710766209207</v>
+        <v>1.489881716211489</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.918669995990397</v>
+        <v>2.11605101034086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.16799262112864</v>
+        <v>0.9552718972759383</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.270047955468015</v>
+        <v>1.371667069270689</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4091569196046652</v>
+        <v>0.4279398587428657</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6489751720042178</v>
+        <v>0.6793628599366094</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3916731178064948</v>
+        <v>0.324129583555582</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3590155339725571</v>
+        <v>0.3910477467559867</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.839354003212443</v>
+        <v>-2.933989263144234</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.505088441327101</v>
+        <v>-2.396318434643112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.3012388353988</v>
+        <v>-1.426490976537336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.616843517391584</v>
+        <v>-4.776321135168746</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4445402632807481</v>
+        <v>-0.4332670956480459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5547021868101963</v>
+        <v>-0.5388787647631937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2796591607942379</v>
+        <v>-0.3113652857012439</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6195447287644207</v>
+        <v>-0.6350677987215625</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.01269120494186</v>
+        <v>1.775917692756283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.223821667202783</v>
+        <v>1.338181815007989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.768696068018616</v>
+        <v>2.866542732263904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4517287791935505</v>
+        <v>-0.4963561617037983</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5227228192929537</v>
+        <v>0.4094795046714128</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5039903309808796</v>
+        <v>0.6262765387559942</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9869204132624646</v>
+        <v>1.000691155953664</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.09446833306475969</v>
+        <v>-0.07592411057735282</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.245417911752388</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.193343012183241</v>
+        <v>-1.193343012183243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4341894278557568</v>
@@ -949,7 +949,7 @@
         <v>0.3937098699864217</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2100369461995222</v>
+        <v>-0.2100369461995224</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.745998175234438</v>
+        <v>-3.680890919464021</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.63727698084185</v>
+        <v>-1.603034101997383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5090922482639065</v>
+        <v>-0.3411029930492948</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.886793846476314</v>
+        <v>-2.992282548621742</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6645528031170101</v>
+        <v>-0.6703635258429667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3014904230855114</v>
+        <v>-0.2931432868372837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1404581011499165</v>
+        <v>-0.101752959803955</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4191247211877754</v>
+        <v>-0.4461388754467837</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.3984193421887626</v>
+        <v>-0.5708204263347361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.024568773396675</v>
+        <v>2.266715420551479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.160302507104731</v>
+        <v>3.254231386462011</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.319163484358495</v>
+        <v>0.4539811535771395</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09573965257185009</v>
+        <v>-0.1565646010841416</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5811194654199784</v>
+        <v>0.6554240269312939</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.308038581192926</v>
+        <v>1.361241471870956</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06418951850004145</v>
+        <v>0.1057159863787441</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.7427249592574638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.039492761678838</v>
+        <v>-1.039492761678837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1818681144445893</v>
@@ -1049,7 +1049,7 @@
         <v>0.1976420214730248</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1921249572074323</v>
+        <v>-0.1921249572074322</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.791909451317128</v>
+        <v>-1.778475045236567</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6482899571850285</v>
+        <v>-0.6463471149043439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2386170662781325</v>
+        <v>-0.3026644149198275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.013253258940576</v>
+        <v>-1.918095868971474</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3458688064624474</v>
+        <v>-0.3526430993535544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1479291582105703</v>
+        <v>-0.1484637273349824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06336898315999227</v>
+        <v>-0.06915815720915595</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3302182938581203</v>
+        <v>-0.3201446093119124</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1521888375909968</v>
+        <v>0.22390970156494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.216785364103195</v>
+        <v>1.242886115246654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.610031201507391</v>
+        <v>1.671162371136508</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.1646410968118982</v>
+        <v>-0.1536653161486252</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04014205474178545</v>
+        <v>0.05973475441316597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3539187906690376</v>
+        <v>0.3622730479623981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4797284824627503</v>
+        <v>0.5069869268149088</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.0281049445756226</v>
+        <v>-0.03105315278286058</v>
       </c>
     </row>
     <row r="19">
